--- a/medicine/Pharmacie/2010_en_santé_et_médecine/2010_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/2010_en_santé_et_médecine/2010_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2010_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2010_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2010 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2010_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2010_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er juillet : la FAO ouvre le domaine « Pesticides » de sa base de données FAOSTAT[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er juillet : la FAO ouvre le domaine « Pesticides » de sa base de données FAOSTAT.
 octobre : déclaration d'éradication de la peste bovine par le FAO</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2010_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2010_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de médecine : Robert Edwards (1925-2013).
 Prix Lasker pour la recherche médicale fondamentale : Douglas Coleman et Jeffrey M. Friedman pour leurs travaux sur la leptine.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2010_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2010_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 janvier : Marshall Warren Nirenberg (né en 1927), biochimiste américain, prix Nobel de médecine en 1968.
 5 mars :  Lucien Campeau (né en 1927), cardiologue canadien.
